--- a/Logs/debug_sweep/testing_episode_output.xlsx
+++ b/Logs/debug_sweep/testing_episode_output.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,16 +433,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B4">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -492,13 +492,13 @@
         <v>-1</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>-1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,27 +520,27 @@
         <v>-1</v>
       </c>
       <c r="B10">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C10">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D10">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>-1.100000023841858</v>
+        <v>-1</v>
       </c>
       <c r="B11">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C11">
-        <v>0.7100000381469727</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D11">
-        <v>2.820513010025024</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -562,13 +562,13 @@
         <v>-1</v>
       </c>
       <c r="B13">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C13">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D13">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -587,16 +587,16 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>-2.529999971389771</v>
+        <v>-1</v>
       </c>
       <c r="B15">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2.139999866485596</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>6.487179756164551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -629,16 +629,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>-1.389999985694885</v>
+        <v>-1</v>
       </c>
       <c r="B18">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>-1</v>
       </c>
       <c r="B19">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0.6899999976158142</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3.225806474685669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -674,13 +674,13 @@
         <v>-1</v>
       </c>
       <c r="B21">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C21">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D21">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>-1</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -727,16 +727,16 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>-1.039999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B25">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.6499999761581421</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2.666666746139526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -755,24 +755,24 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B27">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B28">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -800,27 +800,27 @@
         <v>-1</v>
       </c>
       <c r="B30">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C30">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D30">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B31">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>3.307692289352417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,41 +828,41 @@
         <v>-1</v>
       </c>
       <c r="B32">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.6899999976158142</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>3.225806474685669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B33">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C33">
-        <v>0.8999999761581421</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D33">
-        <v>3.307692289352417</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>-0.9399999976158142</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C34">
         <v>0.550000011920929</v>
       </c>
       <c r="D34">
-        <v>2.410256385803223</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -881,30 +881,30 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B36">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>3.307692289352417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B37">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -940,13 +940,13 @@
         <v>-1</v>
       </c>
       <c r="B40">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>-1</v>
       </c>
       <c r="B41">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,27 +968,27 @@
         <v>-1</v>
       </c>
       <c r="B42">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>-0.4900000095367432</v>
+        <v>-1</v>
       </c>
       <c r="B43">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.1000000238418579</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1.256410360336304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>-1</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1035,16 +1035,16 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>-0.800000011920929</v>
+        <v>-1</v>
       </c>
       <c r="B47">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C47">
-        <v>0.4100000262260437</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D47">
-        <v>2.051282167434692</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,27 +1052,27 @@
         <v>-1</v>
       </c>
       <c r="B48">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>-2.299999952316284</v>
+        <v>-1</v>
       </c>
       <c r="B49">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>1.909999966621399</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>5.897436141967773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1091,16 +1091,16 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>-0.6899999976158142</v>
+        <v>-1</v>
       </c>
       <c r="B51">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.300000011920929</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1.769230842590332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1122,21 +1122,21 @@
         <v>-1</v>
       </c>
       <c r="B53">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C53">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D53">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B54">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1192,41 +1192,41 @@
         <v>-1</v>
       </c>
       <c r="B58">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>-0.7400000095367432</v>
+        <v>-1</v>
       </c>
       <c r="B59">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C59">
-        <v>0.3500000238418579</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D59">
-        <v>1.897436022758484</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>-0.949999988079071</v>
+        <v>-1</v>
       </c>
       <c r="B60">
-        <v>0.3100000023841858</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C60">
-        <v>0.6399999856948853</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D60">
-        <v>3.064516067504883</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>-1</v>
       </c>
       <c r="B61">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C61">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D61">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>-1</v>
       </c>
       <c r="B63">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>-1</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>-1</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1371,16 +1371,16 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B71">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C71">
-        <v>0.1399999856948853</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D71">
-        <v>1.35897433757782</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>-1</v>
       </c>
       <c r="B72">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C72">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>-1</v>
       </c>
       <c r="B74">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C74">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1444,27 +1444,27 @@
         <v>-1</v>
       </c>
       <c r="B76">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>-0.8899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B77">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>2.28205132484436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1497,16 +1497,16 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B80">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1525,10 +1525,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B82">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>-1</v>
       </c>
       <c r="B83">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C83">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1581,16 +1581,16 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B86">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C86">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1609,16 +1609,16 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B88">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C88">
-        <v>0.9799999594688416</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>4.161290168762207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1654,13 +1654,13 @@
         <v>-1</v>
       </c>
       <c r="B91">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C91">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1679,10 +1679,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B93">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1693,16 +1693,16 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B94">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1710,35 +1710,35 @@
         <v>-1</v>
       </c>
       <c r="B95">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C95">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B96">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>3.307692289352417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B97">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>-1</v>
       </c>
       <c r="B100">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C100">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1808,13 +1808,13 @@
         <v>-1</v>
       </c>
       <c r="B102">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C102">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1864,13 +1864,13 @@
         <v>-1</v>
       </c>
       <c r="B106">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C106">
-        <v>0.6899999976158142</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>3.225806474685669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1878,27 +1878,27 @@
         <v>-1</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>-0.8299999833106995</v>
+        <v>-1</v>
       </c>
       <c r="B108">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C108">
-        <v>0.4399999976158142</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D108">
-        <v>2.128205060958862</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1931,16 +1931,16 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>-0.6299999952316284</v>
+        <v>-1</v>
       </c>
       <c r="B111">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>0.2400000095367432</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>1.615384697914124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1948,27 +1948,27 @@
         <v>-1</v>
       </c>
       <c r="B112">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C112">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B113">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1976,13 +1976,13 @@
         <v>-1</v>
       </c>
       <c r="B114">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C114">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D114">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1990,13 +1990,13 @@
         <v>-1</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2004,13 +2004,13 @@
         <v>-1</v>
       </c>
       <c r="B116">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C116">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D116">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2018,13 +2018,13 @@
         <v>-1</v>
       </c>
       <c r="B117">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C117">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2032,35 +2032,35 @@
         <v>-1</v>
       </c>
       <c r="B118">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C118">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D118">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B119">
-        <v>0.3100000023841858</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C119">
-        <v>0.2199999690055847</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D119">
-        <v>1.709677338600159</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B120">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B121">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2099,16 +2099,16 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B123">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C123">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2127,16 +2127,16 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>-1.669999957084656</v>
+        <v>-1</v>
       </c>
       <c r="B125">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C125">
-        <v>1.279999971389771</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>4.282051563262939</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2144,13 +2144,13 @@
         <v>-1</v>
       </c>
       <c r="B126">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C126">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2158,21 +2158,21 @@
         <v>-1</v>
       </c>
       <c r="B127">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C127">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B128">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2183,16 +2183,16 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>-1.850000023841858</v>
+        <v>-1</v>
       </c>
       <c r="B129">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C129">
-        <v>1.460000038146973</v>
+        <v>0</v>
       </c>
       <c r="D129">
-        <v>4.743589878082275</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2211,16 +2211,16 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B131">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C131">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>3.307692289352417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2242,27 +2242,27 @@
         <v>-1</v>
       </c>
       <c r="B133">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C133">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D133">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B134">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2284,13 +2284,13 @@
         <v>-1</v>
       </c>
       <c r="B136">
-        <v>0.3100000023841858</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C136">
-        <v>0.6899999976158142</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D136">
-        <v>3.225806474685669</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2323,10 +2323,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>-0.3100000023841858</v>
+        <v>-1</v>
       </c>
       <c r="B139">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2337,16 +2337,16 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>-1.200000047683716</v>
+        <v>-1</v>
       </c>
       <c r="B140">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>0.89000004529953</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>3.870967864990234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2354,27 +2354,27 @@
         <v>-1</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>-0.449999988079071</v>
+        <v>-1</v>
       </c>
       <c r="B142">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>0.06000000238418579</v>
+        <v>0</v>
       </c>
       <c r="D142">
-        <v>1.153846144676208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2396,13 +2396,13 @@
         <v>-1</v>
       </c>
       <c r="B144">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C144">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D144">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2410,27 +2410,27 @@
         <v>-1</v>
       </c>
       <c r="B145">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>-0.9800000190734863</v>
+        <v>-1</v>
       </c>
       <c r="B146">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C146">
-        <v>0.5900000333786011</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D146">
-        <v>2.512820720672607</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2449,30 +2449,30 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B148">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C148">
-        <v>0.1399999856948853</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D148">
-        <v>1.35897433757782</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>-0.8899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B149">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C149">
-        <v>0.5</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D149">
-        <v>2.28205132484436</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2494,27 +2494,27 @@
         <v>-1</v>
       </c>
       <c r="B151">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C151">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B152">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>0.1399999856948853</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>1.35897433757782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2533,30 +2533,30 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>-0.4900000095367432</v>
+        <v>-1</v>
       </c>
       <c r="B154">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C154">
-        <v>0.1800000071525574</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>1.580645203590393</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="B155">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C155">
-        <v>0.3600000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D155">
-        <v>1.923076987266541</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2603,30 +2603,30 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>-1.980000019073486</v>
+        <v>-1</v>
       </c>
       <c r="B159">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>1.590000033378601</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>5.076923370361328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>-0.8399999737739563</v>
+        <v>-1</v>
       </c>
       <c r="B160">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C160">
-        <v>0.449999988079071</v>
+        <v>0</v>
       </c>
       <c r="D160">
-        <v>2.153846263885498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2648,41 +2648,41 @@
         <v>-1</v>
       </c>
       <c r="B162">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D162">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>-0.8899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B163">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>2.28205132484436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="B164">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C164">
-        <v>0.8600000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D164">
-        <v>3.20512843132019</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2690,13 +2690,13 @@
         <v>-1</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2718,13 +2718,13 @@
         <v>-1</v>
       </c>
       <c r="B167">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C167">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D167">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2732,13 +2732,13 @@
         <v>-1</v>
       </c>
       <c r="B168">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D168">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2757,30 +2757,30 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>-0.8700000047683716</v>
+        <v>-1</v>
       </c>
       <c r="B170">
-        <v>0.3100000023841858</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C170">
-        <v>0.5600000023841858</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D170">
-        <v>2.806451559066772</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>-0.449999988079071</v>
+        <v>-1</v>
       </c>
       <c r="B171">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>0.06000000238418579</v>
+        <v>0</v>
       </c>
       <c r="D171">
-        <v>1.153846144676208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2788,35 +2788,35 @@
         <v>-1</v>
       </c>
       <c r="B172">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B173">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B174">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2827,10 +2827,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B175">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2844,13 +2844,13 @@
         <v>-1</v>
       </c>
       <c r="B176">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C176">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D176">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2858,27 +2858,27 @@
         <v>-1</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>-1.289999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B178">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C178">
-        <v>0.8999999761581421</v>
+        <v>0</v>
       </c>
       <c r="D178">
-        <v>3.307692289352417</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2897,16 +2897,16 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>-0.8399999737739563</v>
+        <v>-1</v>
       </c>
       <c r="B180">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C180">
-        <v>0.449999988079071</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>2.153846263885498</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2928,13 +2928,13 @@
         <v>-1</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2984,13 +2984,13 @@
         <v>-1</v>
       </c>
       <c r="B186">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C186">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D186">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2998,13 +2998,13 @@
         <v>-1</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3026,13 +3026,13 @@
         <v>-1</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3040,13 +3040,13 @@
         <v>-1</v>
       </c>
       <c r="B190">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C190">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3065,44 +3065,44 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>-0.3899999856948853</v>
+        <v>-1</v>
       </c>
       <c r="B192">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>-0.449999988079071</v>
+        <v>-1</v>
       </c>
       <c r="B193">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C193">
-        <v>0.06000000238418579</v>
+        <v>0</v>
       </c>
       <c r="D193">
-        <v>1.153846144676208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>-1.389999985694885</v>
+        <v>-1</v>
       </c>
       <c r="B194">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C194">
-        <v>1.079999923706055</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>4.483870983123779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3124,27 +3124,27 @@
         <v>-1</v>
       </c>
       <c r="B196">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C196">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D196">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="B197">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C197">
-        <v>0.3600000143051147</v>
+        <v>0</v>
       </c>
       <c r="D197">
-        <v>1.923076987266541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3152,27 +3152,27 @@
         <v>-1</v>
       </c>
       <c r="B198">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C198">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>-1.100000023841858</v>
+        <v>-1</v>
       </c>
       <c r="B199">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C199">
-        <v>0.7100000381469727</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D199">
-        <v>2.820513010025024</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3194,13 +3194,13 @@
         <v>-1</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3222,13 +3222,13 @@
         <v>-1</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3236,13 +3236,13 @@
         <v>-1</v>
       </c>
       <c r="B204">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C204">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3278,13 +3278,13 @@
         <v>-1</v>
       </c>
       <c r="B207">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C207">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D207">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3306,13 +3306,13 @@
         <v>-1</v>
       </c>
       <c r="B209">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C209">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D209">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3320,13 +3320,13 @@
         <v>-1</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3348,13 +3348,13 @@
         <v>-1</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3362,13 +3362,13 @@
         <v>-1</v>
       </c>
       <c r="B213">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C213">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D213">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3390,27 +3390,27 @@
         <v>-1</v>
       </c>
       <c r="B215">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C215">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D215">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216">
-        <v>-1.389999985694885</v>
+        <v>-1</v>
       </c>
       <c r="B216">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D216">
-        <v>3.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3460,13 +3460,13 @@
         <v>-1</v>
       </c>
       <c r="B220">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C220">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D220">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3474,13 +3474,13 @@
         <v>-1</v>
       </c>
       <c r="B221">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C221">
-        <v>0.6100000143051147</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D221">
-        <v>2.564102649688721</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3488,13 +3488,13 @@
         <v>-1</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3516,13 +3516,13 @@
         <v>-1</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3555,16 +3555,16 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>-0.4900000095367432</v>
+        <v>-1</v>
       </c>
       <c r="B227">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>0.1000000238418579</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>1.256410360336304</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3572,13 +3572,13 @@
         <v>-1</v>
       </c>
       <c r="B228">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3586,13 +3586,13 @@
         <v>-1</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3600,13 +3600,13 @@
         <v>-1</v>
       </c>
       <c r="B230">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D230">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3628,13 +3628,13 @@
         <v>-1</v>
       </c>
       <c r="B232">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D232">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3667,16 +3667,16 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>-0.8399999737739563</v>
+        <v>-1</v>
       </c>
       <c r="B235">
-        <v>0.3899999856948853</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="C235">
-        <v>0.449999988079071</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="D235">
-        <v>2.153846263885498</v>
+        <v>2.272727251052856</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3684,27 +3684,27 @@
         <v>-1</v>
       </c>
       <c r="B236">
-        <v>0.3100000023841858</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>0.6899999976158142</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>3.225806474685669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>-2.039999961853027</v>
+        <v>-1</v>
       </c>
       <c r="B237">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>1.649999976158142</v>
+        <v>0</v>
       </c>
       <c r="D237">
-        <v>5.230769157409668</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3712,13 +3712,13 @@
         <v>-1</v>
       </c>
       <c r="B238">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D238">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3726,13 +3726,13 @@
         <v>-1</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3754,27 +3754,27 @@
         <v>-1</v>
       </c>
       <c r="B241">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C241">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D241">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242">
-        <v>-0.5299999713897705</v>
+        <v>-1</v>
       </c>
       <c r="B242">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C242">
-        <v>0.1399999856948853</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D242">
-        <v>1.35897433757782</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3782,13 +3782,13 @@
         <v>-1</v>
       </c>
       <c r="B243">
-        <v>0.3899999856948853</v>
+        <v>1</v>
       </c>
       <c r="C243">
-        <v>0.6100000143051147</v>
+        <v>0</v>
       </c>
       <c r="D243">
-        <v>2.564102649688721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3796,27 +3796,27 @@
         <v>-1</v>
       </c>
       <c r="B244">
-        <v>0.3899999856948853</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C244">
-        <v>0.6100000143051147</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D244">
-        <v>2.564102649688721</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245">
-        <v>-0.3100000023841858</v>
+        <v>-1</v>
       </c>
       <c r="B245">
-        <v>0.3100000023841858</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2.222222328186035</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3830,6 +3830,3562 @@
         <v>0</v>
       </c>
       <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247">
+        <v>-1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248">
+        <v>-1</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249">
+        <v>-1</v>
+      </c>
+      <c r="B249">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C249">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D249">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250">
+        <v>-1</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251">
+        <v>-1</v>
+      </c>
+      <c r="B251">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C251">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D251">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252">
+        <v>-1</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253">
+        <v>-1</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254">
+        <v>-1</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255">
+        <v>-1</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256">
+        <v>-1</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257">
+        <v>-1</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258">
+        <v>-1</v>
+      </c>
+      <c r="B258">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C258">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D258">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259">
+        <v>-1</v>
+      </c>
+      <c r="B259">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C259">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D259">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260">
+        <v>-1</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261">
+        <v>-1</v>
+      </c>
+      <c r="B261">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C261">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D261">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262">
+        <v>-1</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263">
+        <v>-1</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264">
+        <v>-1</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265">
+        <v>-1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266">
+        <v>-1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267">
+        <v>-1</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268">
+        <v>-1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269">
+        <v>-1</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270">
+        <v>-1</v>
+      </c>
+      <c r="B270">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C270">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D270">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271">
+        <v>-1</v>
+      </c>
+      <c r="B271">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C271">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D271">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272">
+        <v>-1</v>
+      </c>
+      <c r="B272">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C272">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D272">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273">
+        <v>-1</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274">
+        <v>-1</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275">
+        <v>-1</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276">
+        <v>-1</v>
+      </c>
+      <c r="B276">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C276">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D276">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277">
+        <v>-1</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278">
+        <v>-1</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279">
+        <v>-1</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280">
+        <v>-1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281">
+        <v>-1</v>
+      </c>
+      <c r="B281">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C281">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D281">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282">
+        <v>-1</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283">
+        <v>-1</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284">
+        <v>-1</v>
+      </c>
+      <c r="B284">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C284">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D284">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285">
+        <v>-1</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286">
+        <v>-1</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287">
+        <v>-1</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288">
+        <v>-1</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289">
+        <v>-1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290">
+        <v>-1</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291">
+        <v>-1</v>
+      </c>
+      <c r="B291">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C291">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D291">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292">
+        <v>-1</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293">
+        <v>-1</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294">
+        <v>-1</v>
+      </c>
+      <c r="B294">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C294">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D294">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295">
+        <v>-1</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296">
+        <v>-1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297">
+        <v>-1</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298">
+        <v>-1</v>
+      </c>
+      <c r="B298">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C298">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D298">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299">
+        <v>-1</v>
+      </c>
+      <c r="B299">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C299">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D299">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300">
+        <v>-1</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301">
+        <v>-1</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302">
+        <v>-1</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303">
+        <v>-1</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304">
+        <v>-1</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305">
+        <v>-1</v>
+      </c>
+      <c r="B305">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C305">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D305">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306">
+        <v>-1</v>
+      </c>
+      <c r="B306">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C306">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D306">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307">
+        <v>-1</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308">
+        <v>-1</v>
+      </c>
+      <c r="B308">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C308">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D308">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309">
+        <v>-1</v>
+      </c>
+      <c r="B309">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C309">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D309">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310">
+        <v>-1</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311">
+        <v>-1</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312">
+        <v>-1</v>
+      </c>
+      <c r="B312">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C312">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D312">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313">
+        <v>-1</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314">
+        <v>-1</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315">
+        <v>-1</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316">
+        <v>-1</v>
+      </c>
+      <c r="B316">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C316">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D316">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317">
+        <v>-1</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318">
+        <v>-1</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319">
+        <v>-1</v>
+      </c>
+      <c r="B319">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C319">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D319">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320">
+        <v>-1</v>
+      </c>
+      <c r="B320">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C320">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D320">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321">
+        <v>-1</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322">
+        <v>-1</v>
+      </c>
+      <c r="B322">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C322">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D322">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323">
+        <v>-1</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324">
+        <v>-1</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325">
+        <v>-1</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326">
+        <v>-1</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327">
+        <v>-1</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328">
+        <v>-1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329">
+        <v>-1</v>
+      </c>
+      <c r="B329">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C329">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D329">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330">
+        <v>-1</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331">
+        <v>-1</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332">
+        <v>-1</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333">
+        <v>-1</v>
+      </c>
+      <c r="B333">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C333">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D333">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334">
+        <v>-1</v>
+      </c>
+      <c r="B334">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C334">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D334">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335">
+        <v>-1</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336">
+        <v>-1</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337">
+        <v>-1</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338">
+        <v>-1</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339">
+        <v>-1</v>
+      </c>
+      <c r="B339">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C339">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D339">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340">
+        <v>-1</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341">
+        <v>-1</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342">
+        <v>-1</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343">
+        <v>-1</v>
+      </c>
+      <c r="B343">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C343">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D343">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344">
+        <v>-1</v>
+      </c>
+      <c r="B344">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C344">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D344">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345">
+        <v>-1</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346">
+        <v>-1</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347">
+        <v>-1</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348">
+        <v>-1</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349">
+        <v>-1</v>
+      </c>
+      <c r="B349">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C349">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D349">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350">
+        <v>-1</v>
+      </c>
+      <c r="B350">
+        <v>0.5</v>
+      </c>
+      <c r="C350">
+        <v>0.5</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351">
+        <v>-1</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352">
+        <v>-1</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353">
+        <v>-1</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354">
+        <v>-1</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355">
+        <v>-1</v>
+      </c>
+      <c r="B355">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C355">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D355">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356">
+        <v>-1</v>
+      </c>
+      <c r="B356">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C356">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D356">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357">
+        <v>-1</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358">
+        <v>-1</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359">
+        <v>-1</v>
+      </c>
+      <c r="B359">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C359">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D359">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360">
+        <v>-1</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361">
+        <v>-1</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362">
+        <v>-1</v>
+      </c>
+      <c r="B362">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C362">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D362">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363">
+        <v>-1</v>
+      </c>
+      <c r="B363">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C363">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D363">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364">
+        <v>-1</v>
+      </c>
+      <c r="B364">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C364">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D364">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365">
+        <v>-1</v>
+      </c>
+      <c r="B365">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C365">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D365">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366">
+        <v>-1</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>0</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367">
+        <v>-1</v>
+      </c>
+      <c r="B367">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C367">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D367">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368">
+        <v>-1</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>0</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369">
+        <v>-1</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>0</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370">
+        <v>-1</v>
+      </c>
+      <c r="B370">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C370">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D370">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>-1</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>-1</v>
+      </c>
+      <c r="B372">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C372">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D372">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>-1</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>0</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>-1</v>
+      </c>
+      <c r="B374">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C374">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D374">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>-1</v>
+      </c>
+      <c r="B375">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C375">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D375">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>-1</v>
+      </c>
+      <c r="B376">
+        <v>0.5</v>
+      </c>
+      <c r="C376">
+        <v>0.5</v>
+      </c>
+      <c r="D376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377">
+        <v>-1</v>
+      </c>
+      <c r="B377">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C377">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D377">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378">
+        <v>-1</v>
+      </c>
+      <c r="B378">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C378">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D378">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379">
+        <v>-1</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>0</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380">
+        <v>-1</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381">
+        <v>-1</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382">
+        <v>-1</v>
+      </c>
+      <c r="B382">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C382">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D382">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383">
+        <v>-1</v>
+      </c>
+      <c r="B383">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C383">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D383">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384">
+        <v>-1</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385">
+        <v>-1</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386">
+        <v>-1</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387">
+        <v>-1</v>
+      </c>
+      <c r="B387">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C387">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D387">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388">
+        <v>-1</v>
+      </c>
+      <c r="B388">
+        <v>1</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389">
+        <v>-1</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>0</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390">
+        <v>-1</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>0</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391">
+        <v>-1</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>0</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392">
+        <v>-1</v>
+      </c>
+      <c r="B392">
+        <v>1</v>
+      </c>
+      <c r="C392">
+        <v>0</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393">
+        <v>-1</v>
+      </c>
+      <c r="B393">
+        <v>1</v>
+      </c>
+      <c r="C393">
+        <v>0</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394">
+        <v>-1</v>
+      </c>
+      <c r="B394">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C394">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D394">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395">
+        <v>-1</v>
+      </c>
+      <c r="B395">
+        <v>1</v>
+      </c>
+      <c r="C395">
+        <v>0</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396">
+        <v>-1</v>
+      </c>
+      <c r="B396">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C396">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D396">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397">
+        <v>-1</v>
+      </c>
+      <c r="B397">
+        <v>1</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398">
+        <v>-1</v>
+      </c>
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398">
+        <v>0</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399">
+        <v>-1</v>
+      </c>
+      <c r="B399">
+        <v>1</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400">
+        <v>-1</v>
+      </c>
+      <c r="B400">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C400">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D400">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401">
+        <v>-1</v>
+      </c>
+      <c r="B401">
+        <v>1</v>
+      </c>
+      <c r="C401">
+        <v>0</v>
+      </c>
+      <c r="D401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402">
+        <v>-1</v>
+      </c>
+      <c r="B402">
+        <v>1</v>
+      </c>
+      <c r="C402">
+        <v>0</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403">
+        <v>-1</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+      <c r="D403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404">
+        <v>-1</v>
+      </c>
+      <c r="B404">
+        <v>1</v>
+      </c>
+      <c r="C404">
+        <v>0</v>
+      </c>
+      <c r="D404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405">
+        <v>-1</v>
+      </c>
+      <c r="B405">
+        <v>1</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="D405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406">
+        <v>-1</v>
+      </c>
+      <c r="B406">
+        <v>1</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="D406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407">
+        <v>-1</v>
+      </c>
+      <c r="B407">
+        <v>1</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="D407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408">
+        <v>-1</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="D408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409">
+        <v>-1</v>
+      </c>
+      <c r="B409">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C409">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D409">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410">
+        <v>-1</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411">
+        <v>-1</v>
+      </c>
+      <c r="B411">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C411">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D411">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412">
+        <v>-1</v>
+      </c>
+      <c r="B412">
+        <v>1</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>-1</v>
+      </c>
+      <c r="B413">
+        <v>1</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>-1</v>
+      </c>
+      <c r="B414">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C414">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D414">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415">
+        <v>-1</v>
+      </c>
+      <c r="B415">
+        <v>1</v>
+      </c>
+      <c r="C415">
+        <v>0</v>
+      </c>
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416">
+        <v>-1</v>
+      </c>
+      <c r="B416">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C416">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D416">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417">
+        <v>-1</v>
+      </c>
+      <c r="B417">
+        <v>1</v>
+      </c>
+      <c r="C417">
+        <v>0</v>
+      </c>
+      <c r="D417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418">
+        <v>-1</v>
+      </c>
+      <c r="B418">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C418">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D418">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419">
+        <v>-1</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>0</v>
+      </c>
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420">
+        <v>-1</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>0</v>
+      </c>
+      <c r="D420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421">
+        <v>-1</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>0</v>
+      </c>
+      <c r="D421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422">
+        <v>-1</v>
+      </c>
+      <c r="B422">
+        <v>1</v>
+      </c>
+      <c r="C422">
+        <v>0</v>
+      </c>
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423">
+        <v>-1</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>0</v>
+      </c>
+      <c r="D423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424">
+        <v>-1</v>
+      </c>
+      <c r="B424">
+        <v>1</v>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425">
+        <v>-1</v>
+      </c>
+      <c r="B425">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C425">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D425">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426">
+        <v>-1</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+      <c r="D426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427">
+        <v>-1</v>
+      </c>
+      <c r="B427">
+        <v>1</v>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428">
+        <v>-1</v>
+      </c>
+      <c r="B428">
+        <v>1</v>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+      <c r="D428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429">
+        <v>-1</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="D429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430">
+        <v>-1</v>
+      </c>
+      <c r="B430">
+        <v>1</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="D430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431">
+        <v>-1</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="D431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432">
+        <v>-1</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="D432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433">
+        <v>-1</v>
+      </c>
+      <c r="B433">
+        <v>1</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="D433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434">
+        <v>-1</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="D434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435">
+        <v>-1</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="D435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436">
+        <v>-1</v>
+      </c>
+      <c r="B436">
+        <v>1</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="D436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437">
+        <v>-1</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438">
+        <v>-1</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>0</v>
+      </c>
+      <c r="D438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439">
+        <v>-1</v>
+      </c>
+      <c r="B439">
+        <v>1</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+      <c r="D439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440">
+        <v>-1</v>
+      </c>
+      <c r="B440">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C440">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D440">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441">
+        <v>-1</v>
+      </c>
+      <c r="B441">
+        <v>1</v>
+      </c>
+      <c r="C441">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442">
+        <v>-1</v>
+      </c>
+      <c r="B442">
+        <v>1</v>
+      </c>
+      <c r="C442">
+        <v>0</v>
+      </c>
+      <c r="D442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443">
+        <v>-1</v>
+      </c>
+      <c r="B443">
+        <v>1</v>
+      </c>
+      <c r="C443">
+        <v>0</v>
+      </c>
+      <c r="D443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444">
+        <v>-1</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>0</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445">
+        <v>-1</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>0</v>
+      </c>
+      <c r="D445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446">
+        <v>-1</v>
+      </c>
+      <c r="B446">
+        <v>1</v>
+      </c>
+      <c r="C446">
+        <v>0</v>
+      </c>
+      <c r="D446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447">
+        <v>-1</v>
+      </c>
+      <c r="B447">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C447">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D447">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448">
+        <v>-1</v>
+      </c>
+      <c r="B448">
+        <v>1</v>
+      </c>
+      <c r="C448">
+        <v>0</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449">
+        <v>-1</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>0</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450">
+        <v>-1</v>
+      </c>
+      <c r="B450">
+        <v>1</v>
+      </c>
+      <c r="C450">
+        <v>0</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451">
+        <v>-1</v>
+      </c>
+      <c r="B451">
+        <v>1</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+      <c r="D451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452">
+        <v>-1</v>
+      </c>
+      <c r="B452">
+        <v>1</v>
+      </c>
+      <c r="C452">
+        <v>0</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453">
+        <v>-1</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454">
+        <v>-1</v>
+      </c>
+      <c r="B454">
+        <v>1</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="D454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455">
+        <v>-1</v>
+      </c>
+      <c r="B455">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C455">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D455">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456">
+        <v>-1</v>
+      </c>
+      <c r="B456">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C456">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D456">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457">
+        <v>-1</v>
+      </c>
+      <c r="B457">
+        <v>1</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="D457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458">
+        <v>-1</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459">
+        <v>-1</v>
+      </c>
+      <c r="B459">
+        <v>1</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="D459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460">
+        <v>-1</v>
+      </c>
+      <c r="B460">
+        <v>1</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="D460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461">
+        <v>-1</v>
+      </c>
+      <c r="B461">
+        <v>1</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462">
+        <v>-1</v>
+      </c>
+      <c r="B462">
+        <v>1</v>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+      <c r="D462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463">
+        <v>-1</v>
+      </c>
+      <c r="B463">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C463">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D463">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464">
+        <v>-1</v>
+      </c>
+      <c r="B464">
+        <v>1</v>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+      <c r="D464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465">
+        <v>-1</v>
+      </c>
+      <c r="B465">
+        <v>1</v>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+      <c r="D465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466">
+        <v>-1</v>
+      </c>
+      <c r="B466">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C466">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D466">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467">
+        <v>-1</v>
+      </c>
+      <c r="B467">
+        <v>1</v>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+      <c r="D467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468">
+        <v>-1</v>
+      </c>
+      <c r="B468">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C468">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D468">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469">
+        <v>-1</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+      <c r="D469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470">
+        <v>-1</v>
+      </c>
+      <c r="B470">
+        <v>1</v>
+      </c>
+      <c r="C470">
+        <v>0</v>
+      </c>
+      <c r="D470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471">
+        <v>-1</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>0</v>
+      </c>
+      <c r="D471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472">
+        <v>-1</v>
+      </c>
+      <c r="B472">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C472">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D472">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473">
+        <v>-1</v>
+      </c>
+      <c r="B473">
+        <v>0.5</v>
+      </c>
+      <c r="C473">
+        <v>0.5</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474">
+        <v>-1</v>
+      </c>
+      <c r="B474">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C474">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D474">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475">
+        <v>-1</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>0</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476">
+        <v>-1</v>
+      </c>
+      <c r="B476">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C476">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D476">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477">
+        <v>-1</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478">
+        <v>-1</v>
+      </c>
+      <c r="B478">
+        <v>1</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479">
+        <v>-1</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480">
+        <v>-1</v>
+      </c>
+      <c r="B480">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C480">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D480">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481">
+        <v>-1</v>
+      </c>
+      <c r="B481">
+        <v>1</v>
+      </c>
+      <c r="C481">
+        <v>0</v>
+      </c>
+      <c r="D481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482">
+        <v>-1</v>
+      </c>
+      <c r="B482">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C482">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D482">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483">
+        <v>-1</v>
+      </c>
+      <c r="B483">
+        <v>1</v>
+      </c>
+      <c r="C483">
+        <v>0</v>
+      </c>
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484">
+        <v>-1</v>
+      </c>
+      <c r="B484">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C484">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D484">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485">
+        <v>-1</v>
+      </c>
+      <c r="B485">
+        <v>1</v>
+      </c>
+      <c r="C485">
+        <v>0</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486">
+        <v>-1</v>
+      </c>
+      <c r="B486">
+        <v>1</v>
+      </c>
+      <c r="C486">
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487">
+        <v>-1</v>
+      </c>
+      <c r="B487">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C487">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D487">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488">
+        <v>-1</v>
+      </c>
+      <c r="B488">
+        <v>0.4399999976158142</v>
+      </c>
+      <c r="C488">
+        <v>0.5600000023841858</v>
+      </c>
+      <c r="D488">
+        <v>2.272727251052856</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489">
+        <v>-1</v>
+      </c>
+      <c r="B489">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C489">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D489">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490">
+        <v>-1</v>
+      </c>
+      <c r="B490">
+        <v>1</v>
+      </c>
+      <c r="C490">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491">
+        <v>-1</v>
+      </c>
+      <c r="B491">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C491">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D491">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492">
+        <v>-1</v>
+      </c>
+      <c r="B492">
+        <v>1</v>
+      </c>
+      <c r="C492">
+        <v>0</v>
+      </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493">
+        <v>-1</v>
+      </c>
+      <c r="B493">
+        <v>1</v>
+      </c>
+      <c r="C493">
+        <v>0</v>
+      </c>
+      <c r="D493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494">
+        <v>-1</v>
+      </c>
+      <c r="B494">
+        <v>1</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+      <c r="D494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495">
+        <v>-1</v>
+      </c>
+      <c r="B495">
+        <v>1</v>
+      </c>
+      <c r="C495">
+        <v>0</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496">
+        <v>-1</v>
+      </c>
+      <c r="B496">
+        <v>1</v>
+      </c>
+      <c r="C496">
+        <v>0</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497">
+        <v>-1</v>
+      </c>
+      <c r="B497">
+        <v>1</v>
+      </c>
+      <c r="C497">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498">
+        <v>-1</v>
+      </c>
+      <c r="B498">
+        <v>1</v>
+      </c>
+      <c r="C498">
+        <v>0</v>
+      </c>
+      <c r="D498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499">
+        <v>-1</v>
+      </c>
+      <c r="B499">
+        <v>0.449999988079071</v>
+      </c>
+      <c r="C499">
+        <v>0.550000011920929</v>
+      </c>
+      <c r="D499">
+        <v>2.222222328186035</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500">
+        <v>-1</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>0</v>
+      </c>
+      <c r="D500">
         <v>1</v>
       </c>
     </row>
